--- a/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H2">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I2">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J2">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>494.964433572121</v>
+        <v>754.2774987189521</v>
       </c>
       <c r="R2">
-        <v>494.964433572121</v>
+        <v>6788.497488470568</v>
       </c>
       <c r="S2">
-        <v>0.003629643519460012</v>
+        <v>0.004886257931033962</v>
       </c>
       <c r="T2">
-        <v>0.003629643519460012</v>
+        <v>0.005280836523559676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H3">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I3">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J3">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>4317.015469346504</v>
+        <v>4967.39725613119</v>
       </c>
       <c r="R3">
-        <v>4317.015469346504</v>
+        <v>44706.57530518071</v>
       </c>
       <c r="S3">
-        <v>0.03165727910718458</v>
+        <v>0.03217911747412638</v>
       </c>
       <c r="T3">
-        <v>0.03165727910718458</v>
+        <v>0.03477766856595824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H4">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I4">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J4">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>3523.673126878952</v>
+        <v>4171.674698304592</v>
       </c>
       <c r="R4">
-        <v>3523.673126878952</v>
+        <v>37545.07228474133</v>
       </c>
       <c r="S4">
-        <v>0.02583958858896072</v>
+        <v>0.0270243757965789</v>
       </c>
       <c r="T4">
-        <v>0.02583958858896072</v>
+        <v>0.02920666750450839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H5">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I5">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J5">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>3891.9818067684</v>
+        <v>4294.601858068016</v>
       </c>
       <c r="R5">
-        <v>3891.9818067684</v>
+        <v>38651.41672261214</v>
       </c>
       <c r="S5">
-        <v>0.02854044772640179</v>
+        <v>0.02782070580821739</v>
       </c>
       <c r="T5">
-        <v>0.02854044772640179</v>
+        <v>0.03006730332636262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H6">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I6">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J6">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>1534.036313636215</v>
+        <v>1842.477058355433</v>
       </c>
       <c r="R6">
-        <v>1534.036313636215</v>
+        <v>11054.8623501326</v>
       </c>
       <c r="S6">
-        <v>0.01124930315542501</v>
+        <v>0.01193568435281119</v>
       </c>
       <c r="T6">
-        <v>0.01124930315542501</v>
+        <v>0.008599682177190818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H7">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J7">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>1434.330970961386</v>
+        <v>2155.537890806081</v>
       </c>
       <c r="R7">
-        <v>1434.330970961386</v>
+        <v>19399.84101725473</v>
       </c>
       <c r="S7">
-        <v>0.01051814991218395</v>
+        <v>0.0139637124698584</v>
       </c>
       <c r="T7">
-        <v>0.01051814991218395</v>
+        <v>0.0150913201587191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H8">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J8">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>12510.04833845472</v>
+        <v>14195.58852340441</v>
       </c>
       <c r="R8">
-        <v>12510.04833845472</v>
+        <v>127760.2967106397</v>
       </c>
       <c r="S8">
-        <v>0.0917379367081078</v>
+        <v>0.09195993135945929</v>
       </c>
       <c r="T8">
-        <v>0.0917379367081078</v>
+        <v>0.09938594545792062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H9">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J9">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>10211.06397676228</v>
+        <v>11921.6109397201</v>
       </c>
       <c r="R9">
-        <v>10211.06397676228</v>
+        <v>107294.4984574809</v>
       </c>
       <c r="S9">
-        <v>0.07487916237247462</v>
+        <v>0.07722895897576501</v>
       </c>
       <c r="T9">
-        <v>0.07487916237247462</v>
+        <v>0.08346540706446327</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H10">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J10">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>11278.3660102171</v>
+        <v>12272.90625361884</v>
       </c>
       <c r="R10">
-        <v>11278.3660102171</v>
+        <v>110456.1562825696</v>
       </c>
       <c r="S10">
-        <v>0.08270583767736057</v>
+        <v>0.07950467251168261</v>
       </c>
       <c r="T10">
-        <v>0.08270583767736057</v>
+        <v>0.08592489064622537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H11">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J11">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>4445.401822810469</v>
+        <v>5265.342157191773</v>
       </c>
       <c r="R11">
-        <v>4445.401822810469</v>
+        <v>31592.05294315064</v>
       </c>
       <c r="S11">
-        <v>0.03259875421979928</v>
+        <v>0.03410922361979686</v>
       </c>
       <c r="T11">
-        <v>0.03259875421979928</v>
+        <v>0.02457575734833303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H12">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I12">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J12">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>1036.653640983575</v>
+        <v>1500.773580615429</v>
       </c>
       <c r="R12">
-        <v>1036.653640983575</v>
+        <v>13506.96222553886</v>
       </c>
       <c r="S12">
-        <v>0.007601926350072586</v>
+        <v>0.00972210734566902</v>
       </c>
       <c r="T12">
-        <v>0.007601926350072586</v>
+        <v>0.01050719390617857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H13">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I13">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J13">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>9041.558344269162</v>
+        <v>9883.548931374149</v>
       </c>
       <c r="R13">
-        <v>9041.558344269162</v>
+        <v>88951.94038236732</v>
       </c>
       <c r="S13">
-        <v>0.06630301376051158</v>
+        <v>0.06402626279414392</v>
       </c>
       <c r="T13">
-        <v>0.06630301376051158</v>
+        <v>0.06919655732516734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H14">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I14">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J14">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>7379.981931737711</v>
+        <v>8300.312795715728</v>
       </c>
       <c r="R14">
-        <v>7379.981931737711</v>
+        <v>74702.81516144155</v>
       </c>
       <c r="S14">
-        <v>0.05411844119575653</v>
+        <v>0.05376995773705374</v>
       </c>
       <c r="T14">
-        <v>0.05411844119575653</v>
+        <v>0.05811202779219802</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H15">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I15">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J15">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>8151.367728607535</v>
+        <v>8544.898951376432</v>
       </c>
       <c r="R15">
-        <v>8151.367728607535</v>
+        <v>76904.09056238788</v>
       </c>
       <c r="S15">
-        <v>0.05977512128972954</v>
+        <v>0.05535440251360874</v>
       </c>
       <c r="T15">
-        <v>0.05977512128972954</v>
+        <v>0.05982442078571001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H16">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I16">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J16">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>3212.886062247313</v>
+        <v>3665.946414636681</v>
       </c>
       <c r="R16">
-        <v>3212.886062247313</v>
+        <v>21995.67848782009</v>
       </c>
       <c r="S16">
-        <v>0.02356054351307274</v>
+        <v>0.02374823559457445</v>
       </c>
       <c r="T16">
-        <v>0.02356054351307274</v>
+        <v>0.01711064672502748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H17">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I17">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J17">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>1397.849690414946</v>
+        <v>2027.905822293422</v>
       </c>
       <c r="R17">
-        <v>1397.849690414946</v>
+        <v>18251.1524006408</v>
       </c>
       <c r="S17">
-        <v>0.01025062757212131</v>
+        <v>0.01313690375809988</v>
       </c>
       <c r="T17">
-        <v>0.01025062757212131</v>
+        <v>0.01419774439897042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H18">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I18">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J18">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>12191.86335024465</v>
+        <v>13355.05014329775</v>
       </c>
       <c r="R18">
-        <v>12191.86335024465</v>
+        <v>120195.4512896797</v>
       </c>
       <c r="S18">
-        <v>0.08940464162241581</v>
+        <v>0.08651486991574663</v>
       </c>
       <c r="T18">
-        <v>0.08940464162241581</v>
+        <v>0.09350118052106438</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H19">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I19">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J19">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>9951.352168849331</v>
+        <v>11215.717589049</v>
       </c>
       <c r="R19">
-        <v>9951.352168849331</v>
+        <v>100941.458301441</v>
       </c>
       <c r="S19">
-        <v>0.07297465930805169</v>
+        <v>0.07265613665369017</v>
       </c>
       <c r="T19">
-        <v>0.07297465930805169</v>
+        <v>0.07852331692616149</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H20">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I20">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J20">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>10991.50806539535</v>
+        <v>11546.21227227317</v>
       </c>
       <c r="R20">
-        <v>10991.50806539535</v>
+        <v>103915.9104504586</v>
       </c>
       <c r="S20">
-        <v>0.08060226818871336</v>
+        <v>0.07479710237229022</v>
       </c>
       <c r="T20">
-        <v>0.08060226818871336</v>
+        <v>0.0808371714385613</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H21">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I21">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J21">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>4332.335902654743</v>
+        <v>4953.574726048179</v>
       </c>
       <c r="R21">
-        <v>4332.335902654743</v>
+        <v>29721.44835628908</v>
       </c>
       <c r="S21">
-        <v>0.03176962599051771</v>
+        <v>0.03208957423922971</v>
       </c>
       <c r="T21">
-        <v>0.03176962599051771</v>
+        <v>0.02312059631450868</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H22">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I22">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J22">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>540.9056524870088</v>
+        <v>824.9190313308275</v>
       </c>
       <c r="R22">
-        <v>540.9056524870088</v>
+        <v>4949.514187984964</v>
       </c>
       <c r="S22">
-        <v>0.0039665369126016</v>
+        <v>0.005343878302278503</v>
       </c>
       <c r="T22">
-        <v>0.0039665369126016</v>
+        <v>0.00385027398804806</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H23">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I23">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J23">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>4717.708810694042</v>
+        <v>5432.616695742076</v>
       </c>
       <c r="R23">
-        <v>4717.708810694042</v>
+        <v>32595.70017445246</v>
       </c>
       <c r="S23">
-        <v>0.03459561950311316</v>
+        <v>0.03519283879065855</v>
       </c>
       <c r="T23">
-        <v>0.03459561950311316</v>
+        <v>0.02535650404004643</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H24">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I24">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J24">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>3850.730643594171</v>
+        <v>4562.371086234657</v>
       </c>
       <c r="R24">
-        <v>3850.730643594171</v>
+        <v>27374.22651740794</v>
       </c>
       <c r="S24">
-        <v>0.02823794716892747</v>
+        <v>0.02955533201281482</v>
       </c>
       <c r="T24">
-        <v>0.02823794716892747</v>
+        <v>0.02129467020395001</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H25">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I25">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J25">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>4253.224708419139</v>
+        <v>4696.810935929919</v>
       </c>
       <c r="R25">
-        <v>4253.224708419139</v>
+        <v>28180.86561557951</v>
       </c>
       <c r="S25">
-        <v>0.03118949252233759</v>
+        <v>0.0304262419669579</v>
       </c>
       <c r="T25">
-        <v>0.03118949252233759</v>
+        <v>0.02192216240206753</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>69.96608420987231</v>
+        <v>77.2091405</v>
       </c>
       <c r="H26">
-        <v>69.96608420987231</v>
+        <v>154.418281</v>
       </c>
       <c r="I26">
-        <v>0.1102830282216789</v>
+        <v>0.1135718067765637</v>
       </c>
       <c r="J26">
-        <v>0.1102830282216789</v>
+        <v>0.07869366509321105</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>1676.421287844427</v>
+        <v>2015.03344963782</v>
       </c>
       <c r="R26">
-        <v>1676.421287844427</v>
+        <v>8060.133798551279</v>
       </c>
       <c r="S26">
-        <v>0.01229343211469904</v>
+        <v>0.01305351570385395</v>
       </c>
       <c r="T26">
-        <v>0.01229343211469904</v>
+        <v>0.00627005445909902</v>
       </c>
     </row>
   </sheetData>
